--- a/biology/Médecine/Pox_party/Pox_party.xlsx
+++ b/biology/Médecine/Pox_party/Pox_party.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une « fête de la varicelle », ou ses variantes en anglais pox party, measles party, flu party, covid party, etc. (selon le virus), est une activité sociale consistant à réunir des enfants porteurs du virus d'une maladie infantile avec d'autres non-contaminés afin que ceux-ci la contractent dans un but présumé de renforcement du système immunitaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si ces pratiques sont parfois prônées par des opposants à la vaccination, la vaccination contre la varicelle n'est pas recommandée en France, il n'y a pas d'éviction scolaire lors des varicelles, et contracter la maladie à l'age adulte étant plus grave que dans l'enfance, il est raisonnable pour des familles de ne pas éviter que leurs enfants contractent la varicelle dans l'enfance[1].
-Les risques de complications graves sont beaucoup plus élevés avec la maladie rougeole par contre, qu'avec le vaccin, d'où l'obligation vaccinale en France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si ces pratiques sont parfois prônées par des opposants à la vaccination, la vaccination contre la varicelle n'est pas recommandée en France, il n'y a pas d'éviction scolaire lors des varicelles, et contracter la maladie à l'age adulte étant plus grave que dans l'enfance, il est raisonnable pour des familles de ne pas éviter que leurs enfants contractent la varicelle dans l'enfance.
+Les risques de complications graves sont beaucoup plus élevés avec la maladie rougeole par contre, qu'avec le vaccin, d'où l'obligation vaccinale en France.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette pratique était courante aux États-Unis dans les années 1950 et 1960[réf. nécessaire], avant la généralisation du vaccin contre la rougeole et la rubéole[3].
-Des campagnes de désinformation provenant d'opposants à la vaccination, avec l'utilisation des réseaux sociaux, tentent de remettre cette pratique au goût du jour[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette pratique était courante aux États-Unis dans les années 1950 et 1960[réf. nécessaire], avant la généralisation du vaccin contre la rougeole et la rubéole.
+Des campagnes de désinformation provenant d'opposants à la vaccination, avec l'utilisation des réseaux sociaux, tentent de remettre cette pratique au goût du jour.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Fête de la grippe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la pandémie de grippe A (H1N1) de 2009-2010 au Canada, les médecins ont constaté une augmentation des « fêtes de la grippe », destinées à faire contracter la grippe à des enfants aux fins de les immuniser[4]. Lors de la pandémie de maladie à coronavirus 2019, des Covid parties auraient eu lieu[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la pandémie de grippe A (H1N1) de 2009-2010 au Canada, les médecins ont constaté une augmentation des « fêtes de la grippe », destinées à faire contracter la grippe à des enfants aux fins de les immuniser. Lors de la pandémie de maladie à coronavirus 2019, des Covid parties auraient eu lieu,.
 </t>
         </is>
       </c>
